--- a/pred_ohlcv/54_21/2019-10-28 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4780.783799999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6642.552699999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>5931.480699999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>7079.831199999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6363.739099999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6363.739099999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6599.654199999999</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8154.528499999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>8995.815699999997</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>10197.6664</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12838.7219</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12831.0915</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>12720.1626</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>12906.3435</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>13060.23429999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>13179.73229999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>12558.46882100991</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11858.30692100991</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11753.03642100991</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11924.55972100991</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>12349.38102100992</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>12802.28932100992</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>12252.49512100992</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12473.82982100991</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>5213.791593243142</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>5206.279693243142</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4981.117793243142</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>5319.470893243142</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8979.056293243142</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>8168.411693243143</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>8557.991393243143</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>7072.633493243143</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6457.224693243143</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6226.798193243143</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4400.939293243143</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>5712.445893243143</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4002.912793243142</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3601.826593243142</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3902.005593243142</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4117.727493243143</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4306.026893243143</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>4312.346093243143</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3905.071693243144</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4126.219293243144</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>4286.219293243144</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3756.240193243144</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>6260.465093243145</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>6530.604193243145</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2217.869893243145</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2177.869893243145</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-3484.326906756855</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-3559.826606756855</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-3263.750006756855</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-2889.964906756855</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-2879.671506756855</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-2879.671506756855</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-2879.671506756855</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-2880.496706756855</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-2877.496706756855</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-2877.496706756855</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-3182.352306756855</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3182.352306756855</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3182.352306756855</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-3195.202306756855</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-3195.202306756855</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-3195.202306756855</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-3212.340106756855</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-3212.340106756855</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-3212.340106756855</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-3240.699306756855</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-3240.699306756855</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-3578.896506756855</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-3532.371506756855</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-4063.151206756855</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-3878.045406756855</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-3896.881106756855</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-4000.178506756855</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-4012.978506756855</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5267.698106756856</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-4958.454006756856</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-3914.157306756856</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3918.357706756856</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-3908.357706756856</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3707.874506756856</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-3829.086606756856</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-3829.086606756856</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-3456.004406756856</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-3039.629306756857</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3039.629306756857</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2850.650806756857</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2947.650806756857</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-2904.292806756856</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2887.088406756856</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2810.401706756856</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1893.442658528024</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2635.896709898431</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4170.752109898431</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4725.734609898431</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4717.75870989843</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-4932.019709898431</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-5257.405809898431</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5032.786309898431</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6019.701909898431</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5892.834509898431</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-7547.282609898431</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-7274.053609898431</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-8953.009665385696</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-8796.530165385697</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-9080.468465385697</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-9630.205965385696</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-8924.468265385694</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>8995.815699999997</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>10197.6664</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11066.8182</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>12838.7219</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12831.0915</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12156.6687</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>12163.3714</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>12293.8306</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>12720.1626</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>12906.3435</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>13060.23429999999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>13179.73229999999</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>12558.46882100991</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>11858.30692100991</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>11753.03642100991</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>11924.55972100991</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>12349.38102100992</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>12802.28932100992</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>12252.49512100992</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>12475.82982100991</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12473.82982100991</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4471.576693243142</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>5213.791593243142</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>5206.279693243142</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4981.117793243142</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>5319.470893243142</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>8979.056293243142</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>8168.411693243143</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>8557.991393243143</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>7072.633493243143</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6457.224693243143</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6226.798193243143</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4400.939293243143</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>5712.445893243143</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4002.912793243142</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3601.826593243142</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>3902.005593243142</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4117.727493243143</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4405.326893243143</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>4306.026893243143</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>4312.346093243143</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4279.221493243143</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>4336.939293243144</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>4254.257793243144</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3603.543393243144</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3933.499293243144</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3390.243293243144</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3138.663293243144</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>4305.700293243144</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>4211.389293243144</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>6716.373893243145</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>6522.359693243146</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6523.359693243146</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>6116.204793243145</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>2591.560693243145</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>2227.722793243145</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>2204.935893243145</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>2217.869893243145</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>2177.869893243145</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1673.227493243145</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1753.749493243145</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5054.954006756856</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1906.143258528025</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1963.143258528025</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1033.541458528025</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-800.2909585280246</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1893.442658528024</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-2225.428058528024</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-3569.269958528024</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-4458.233109898431</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-4704.349209898432</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-3691.716209898431</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-3652.586209898431</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-3876.929309898431</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-3352.180909898431</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-3352.180909898431</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2635.896709898431</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-4170.752109898431</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-4725.734609898431</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-4717.75870989843</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-4932.019709898431</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-5264.019709898431</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-5243.143209898431</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-5257.405809898431</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-5032.786309898431</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-4632.786309898431</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-4919.456309898431</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5819.701909898431</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-6019.701909898431</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-10081.4998653857</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-10081.4998653857</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9959.2915653857</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9322.955465385699</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-10157.4816653857</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-8941.142865385696</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-8953.009665385696</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-8796.530165385697</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-9080.468465385697</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-9283.108465385696</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-9401.622565385696</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-9414.721565385697</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-9608.622565385696</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-8992.234365385695</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-8982.465165385694</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-8982.465165385694</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-8938.239165385694</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-8161.463265385694</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-8186.433265385695</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-8275.121165385695</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-8922.743365385695</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-8931.093365385696</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-8866.392265385695</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-8865.392265385695</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-9014.001465385696</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-9015.020765385696</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-8841.875065385697</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-9213.453065385696</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-8913.153965385696</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-9018.526365385696</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-9124.676865385696</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-9159.798165385697</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-9148.703265385697</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-9178.703265385697</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-8047.322065385697</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-8367.369765385696</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-8478.724965385696</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-8635.872965385695</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-8660.195365385694</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-8579.120365385694</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-8513.692765385693</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-8519.938165385693</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-8419.038165385693</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-8443.028165385693</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-7647.204665385692</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-7934.978665385693</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-8501.213665385692</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-8307.060965385692</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
